--- a/pred_ohlcv/54_21/2019-10-27 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ETZ ohlcv.xlsx
@@ -2498,7 +2498,7 @@
         <v>-1079643.205319602</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1430394.412319602</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1430384.412319602</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1430384.412319602</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1590547.261419601</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1527934.193019601</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1527934.193019601</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1541686.533019601</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1541649.533019601</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1546805.554919601</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1536887.038219601</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1529530.348219601</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1735215.518919601</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1741306.342819601</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1741266.118519601</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1741600.169519601</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1741556.895319601</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1742336.120119601</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1711449.323919601</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1711350.323919601</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1339523.514452077</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1387232.348952077</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1382236.751252077</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1382225.751252077</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1382225.751252077</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1388697.908252077</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ETZ ohlcv.xlsx
@@ -2498,7 +2498,7 @@
         <v>-1079643.205319602</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1590318.483519601</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1590557.261419601</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1590547.261419601</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1591339.466719601</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1597004.056719601</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1596863.623219601</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1596779.193719601</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1536920.743219601</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1536900.743219601</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1527934.193019601</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1527934.193019601</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1541686.533019601</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1541638.533019601</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1541649.533019601</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1546805.554919601</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1536887.038219601</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1529530.348219601</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1715542.031819601</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1715293.157219601</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1741306.342819601</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1741266.118519601</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1741579.169519601</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1741579.169519601</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1741556.895319601</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1742347.120119601</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1711449.323919601</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1711350.323919601</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1716626.037819601</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1729029.037819601</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1728685.037819601</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1756859.024519601</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1782694.730619601</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1782622.730619601</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1782622.730619601</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1782603.889619601</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1782603.889619601</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1802563.409619601</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1986894.985219602</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1986884.985219602</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1721762.289919602</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1335776.196652077</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1335776.196652077</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1333146.228752077</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1333146.228752077</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1333176.228752077</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1339431.933852077</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1339420.933852077</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1339523.514452077</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1339630.837052077</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1387232.348952077</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1382236.751252077</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1382225.751252077</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1381622.577152077</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1385153.887852077</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1388697.908252077</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
